--- a/Docs/SuperSocketLite_Code.xlsx
+++ b/Docs/SuperSocketLite_Code.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\github\01_SuperSocketLite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\github\01_SuperSocketLite\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27333" windowHeight="16478" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27333" windowHeight="16478"/>
   </bookViews>
   <sheets>
     <sheet name="공식 문서" sheetId="6" r:id="rId1"/>
     <sheet name="Configuration" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
-    <sheet name="Send" sheetId="1" r:id="rId4"/>
-    <sheet name="TrySend" sheetId="2" r:id="rId5"/>
-    <sheet name="sendingQUeuePool" sheetId="3" r:id="rId6"/>
-    <sheet name="ClearIdleSession" sheetId="4" r:id="rId7"/>
+    <sheet name="Send" sheetId="1" r:id="rId3"/>
+    <sheet name="TrySend" sheetId="2" r:id="rId4"/>
+    <sheet name="sendingQUeuePool" sheetId="3" r:id="rId5"/>
+    <sheet name="ClearIdleSession" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -91,10 +91,6 @@
   </si>
   <si>
     <t>the name of the server instance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serverType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -394,12 +390,16 @@
   <si>
     <t>it is a configuration element for X509Certificate which will be used in this server instance</t>
   </si>
+  <si>
+    <t>serverType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,6 +452,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -493,7 +509,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -518,19 +534,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2312,15 +2334,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>172528</xdr:colOff>
+      <xdr:colOff>138023</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>69009</xdr:rowOff>
+      <xdr:rowOff>51756</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>448574</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>69009</xdr:rowOff>
+      <xdr:colOff>414069</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>94891</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2329,8 +2351,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="172528" y="69009"/>
-          <a:ext cx="5106838" cy="595223"/>
+          <a:off x="138023" y="51756"/>
+          <a:ext cx="5106838" cy="836765"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2393,7 +2415,22 @@
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
             <a:t>.</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>Heart-beat</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>기능을 대체 가능</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2951,7 +2988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -2976,8 +3013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
@@ -2987,10 +3024,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="24.45" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="10"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -3054,235 +3091,235 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="6" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="46.9" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="46.9" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="B15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="9" t="s">
+    </row>
+    <row r="16" spans="1:2" ht="46.9" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="6" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="B17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="6" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="6" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+      <c r="B19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="6" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+      <c r="B20" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="6" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="31.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="31.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+      <c r="B21" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="6" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+      <c r="B22" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="6" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+      <c r="B23" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="6" t="s">
+    </row>
+    <row r="24" spans="1:2" ht="31.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="31.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+      <c r="B24" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="6" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+      <c r="B25" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="6" t="s">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
+      <c r="B26" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="6" t="s">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+      <c r="B27" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="6" t="s">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
+      <c r="B28" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="6" t="s">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
+      <c r="B29" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="6" t="s">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
+      <c r="B30" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="6" t="s">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
+      <c r="B31" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="6" t="s">
+    </row>
+    <row r="32" spans="1:2" ht="31.25" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="31.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
+      <c r="B32" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="6" t="s">
+    </row>
+    <row r="33" spans="1:2" ht="46.9" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="46.9" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
+      <c r="B33" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="6" t="s">
+    </row>
+    <row r="34" spans="1:2" ht="31.25" x14ac:dyDescent="0.3">
+      <c r="A34" s="13" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="31.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
+      <c r="B34" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="6" t="s">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="12" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
+      <c r="B35" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="6" t="s">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="13" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
+      <c r="B36" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="6" t="s">
+    </row>
+    <row r="37" spans="1:2" ht="31.25" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="31.25" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
+      <c r="B37" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="6" t="s">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="13" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
+      <c r="B38" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="6" t="s">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="13" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
+      <c r="B39" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="6" t="s">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="13" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
+      <c r="B40" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B40" s="6" t="s">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="13" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
+      <c r="B41" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B41" s="6" t="s">
+    </row>
+    <row r="42" spans="1:2" ht="31.25" x14ac:dyDescent="0.3">
+      <c r="A42" s="13" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="31.25" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
+      <c r="B42" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -3293,19 +3330,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3321,7 +3345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3337,7 +3361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3353,12 +3377,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
@@ -3367,4 +3391,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Docs/SuperSocketLite_Code.xlsx
+++ b/Docs/SuperSocketLite_Code.xlsx
@@ -9,16 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27333" windowHeight="16478"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27333" windowHeight="16478" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="공식 문서" sheetId="6" r:id="rId1"/>
     <sheet name="Configuration" sheetId="5" r:id="rId2"/>
     <sheet name="Send" sheetId="1" r:id="rId3"/>
     <sheet name="TrySend" sheetId="2" r:id="rId4"/>
-    <sheet name="sendingQUeuePool" sheetId="3" r:id="rId5"/>
-    <sheet name="ClearIdleSession" sheetId="4" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
+    <sheet name="모아서 Send" sheetId="8" r:id="rId5"/>
+    <sheet name="sendingQueuePool" sheetId="3" r:id="rId6"/>
+    <sheet name="ClearIdleSession" sheetId="4" r:id="rId7"/>
+    <sheet name="Server Start" sheetId="7" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>http://docs.supersocket.net/v1-6/en-US</t>
   </si>
@@ -392,6 +394,22 @@
   </si>
   <si>
     <t>serverType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoDelay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true이면 nagel 알고리즘 사용하지 않음. default는 false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CollectSendIntervalMillSec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>send 요청시 바로 보내지 않고, 이 항목에서 지정한 시간 동안(밀리초) 기다린 후 모아서 보낸다. 값이 0 이면 사용하지 않ㄴ느다. default는 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,7 +527,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -553,6 +571,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1241,8 +1262,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>250166</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>483080</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>86264</xdr:rowOff>
     </xdr:from>
@@ -1259,10 +1280,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2320506" y="6832121"/>
-          <a:ext cx="5429877" cy="11379360"/>
-          <a:chOff x="2320506" y="6832121"/>
-          <a:chExt cx="5429877" cy="11379360"/>
+          <a:off x="1173193" y="6832121"/>
+          <a:ext cx="6577190" cy="11379360"/>
+          <a:chOff x="1173193" y="6832121"/>
+          <a:chExt cx="6577190" cy="11379360"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
@@ -1295,7 +1316,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6556076" y="7211683"/>
+            <a:off x="1173193" y="6866626"/>
             <a:ext cx="1164566" cy="215660"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1901,10 +1922,385 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>431322</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>17255</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>655607</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>163902</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="TextBox 34"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5952228" y="7358334"/>
+          <a:ext cx="5055077" cy="345055"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>소켓의 상태가 아직 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>InSending </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>중이라면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>Queue</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>에 담아 놓고</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>보내지는 않는다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>86263</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>86264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>646981</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>138023</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="86263" y="86264"/>
+          <a:ext cx="6771737" cy="845389"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>실험적인 기능</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>세션에서 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>send</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>를 했을 때 즉시 보내지 않고</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>일정 시간 동안 모았다가 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>(send </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>스레드에서</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>한번에 다 보낸다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>default</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>는 사용하지 않는다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>146649</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>8626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>353336</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>101424</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="146649" y="1397479"/>
+          <a:ext cx="4347366" cy="1680058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>163902</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>138023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>289376</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>73250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="163902" y="3312544"/>
+          <a:ext cx="5646380" cy="3308155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>250166</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>146649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>670661</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>125952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="250166" y="6892506"/>
+          <a:ext cx="3871061" cy="3550638"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215660</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>600358</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>48163</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4356339" y="6944265"/>
+          <a:ext cx="7975944" cy="10166947"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2226,10 +2622,124 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>681486</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>163902</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>388004</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>112576</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7582618" y="7504981"/>
+          <a:ext cx="6607650" cy="2329565"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>353683</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>181155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>510526</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>50834</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="353683" y="3950898"/>
+          <a:ext cx="7057975" cy="6417128"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>138023</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>146648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>387432</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>81874</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4278702" y="10067025"/>
+          <a:ext cx="6460428" cy="3308155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2714,6 +3224,1043 @@
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
             <a:t>.</a:t>
           </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>60386</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>17254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>225889</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>190472</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="그룹 11"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="750499" y="3786997"/>
+          <a:ext cx="7066635" cy="6919075"/>
+          <a:chOff x="60385" y="86265"/>
+          <a:chExt cx="7066635" cy="6919075"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="8" name="그룹 7"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="60385" y="146648"/>
+            <a:ext cx="7066635" cy="6858692"/>
+            <a:chOff x="60385" y="146648"/>
+            <a:chExt cx="7066635" cy="6858692"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="그림 4"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="60385" y="172528"/>
+              <a:ext cx="7066635" cy="6832812"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5943600" y="146648"/>
+              <a:ext cx="1164566" cy="276046"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+                <a:t>애플리케이션</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="직사각형 9"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="871268" y="5650302"/>
+            <a:ext cx="6116128" cy="319177"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="직사각형 10"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="112145" y="86265"/>
+            <a:ext cx="4718648" cy="319177"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>284672</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>146650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>606056</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>75400</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="그룹 14"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2355012" y="10463842"/>
+          <a:ext cx="7222516" cy="6079384"/>
+          <a:chOff x="793631" y="7159925"/>
+          <a:chExt cx="7222516" cy="6079384"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="13" name="그림 12"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="793631" y="7159925"/>
+            <a:ext cx="7222516" cy="6079384"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="TextBox 13"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6668219" y="7237562"/>
+            <a:ext cx="1199071" cy="232913"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>AppServerBase.cs</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>163902</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>103516</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>604411</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>13335</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="19" name="그룹 18"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="163902" y="103516"/>
+          <a:ext cx="4581188" cy="3481155"/>
+          <a:chOff x="163902" y="103516"/>
+          <a:chExt cx="4581188" cy="3481155"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="17" name="그림 16"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="163902" y="155275"/>
+            <a:ext cx="4581188" cy="3429396"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="TextBox 17"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3657599" y="103516"/>
+            <a:ext cx="1078302" cy="232913"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>애플리케이션</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>370936</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>155276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>449260</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>140422</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="21" name="그룹 20"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="370936" y="16821510"/>
+          <a:ext cx="9049796" cy="9508708"/>
+          <a:chOff x="370936" y="16821510"/>
+          <a:chExt cx="9049796" cy="9508708"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="16" name="그림 15"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="370936" y="16838758"/>
+            <a:ext cx="9049796" cy="9491460"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="TextBox 19"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8151962" y="16821510"/>
+            <a:ext cx="1199071" cy="232913"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>AppServerBase.cs</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>586597</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>120768</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>655608</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>17251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="직사각형 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="586597" y="20358338"/>
+          <a:ext cx="3519577" cy="888521"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>319178</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>138022</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>418093</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>143024</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="26" name="그룹 25"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1699404" y="26526226"/>
+          <a:ext cx="7690161" cy="7941304"/>
+          <a:chOff x="1906438" y="26388203"/>
+          <a:chExt cx="7690161" cy="7941304"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="23" name="그림 22"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1906438" y="26388203"/>
+            <a:ext cx="7690161" cy="7941304"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="TextBox 23"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8186467" y="26500348"/>
+            <a:ext cx="1371601" cy="241539"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>AsynSocketServer.cs</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>146649</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>69011</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>293298</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>69011</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="직사각형 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2216989" y="27846068"/>
+          <a:ext cx="7047781" cy="396815"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>103517</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>86264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>534838</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>189780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="직사각형 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2173857" y="32426694"/>
+          <a:ext cx="1811547" cy="500331"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>250166</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>77638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>274413</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>32229</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="32" name="그룹 31"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3010619" y="34600551"/>
+          <a:ext cx="6235266" cy="8287708"/>
+          <a:chOff x="3010619" y="34600551"/>
+          <a:chExt cx="6235266" cy="8287708"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="30" name="그림 29"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3010619" y="34600551"/>
+            <a:ext cx="6235266" cy="8287708"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="TextBox 30"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7720641" y="34747201"/>
+            <a:ext cx="1371601" cy="241539"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>SocketServerBase.cs</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>34506</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>138023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>543464</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>69012</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="TextBox 32"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8315864" y="32081638"/>
+          <a:ext cx="1889185" cy="327804"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>Read</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>에서만 사용하고 있음</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>483079</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>189781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>586595</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>86265</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1173192" y="785004"/>
+          <a:ext cx="2863969" cy="491706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -2988,7 +4535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -3011,10 +4558,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B42"/>
+  <dimension ref="A2:B44"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:B42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
@@ -3320,6 +4867,22 @@
       </c>
       <c r="B42" s="14" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="31.25" x14ac:dyDescent="0.3">
+      <c r="A44" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3349,8 +4912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="L135" sqref="L135"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
@@ -3366,7 +4929,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
@@ -3381,8 +4944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
@@ -3397,11 +4960,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="Q183" sqref="Q183"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Docs/SuperSocketLite_Code.xlsx
+++ b/Docs/SuperSocketLite_Code.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\github\01_SuperSocketLite\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\SuperSocketLite\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EF19C0-5530-4ED7-922E-10736AF0F9AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27333" windowHeight="16478" activeTab="7"/>
+    <workbookView xWindow="960" yWindow="765" windowWidth="28800" windowHeight="15435" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="공식 문서" sheetId="6" r:id="rId1"/>
@@ -20,7 +21,8 @@
     <sheet name="sendingQueuePool" sheetId="3" r:id="rId6"/>
     <sheet name="ClearIdleSession" sheetId="4" r:id="rId7"/>
     <sheet name="Server Start" sheetId="7" r:id="rId8"/>
-    <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
+    <sheet name="OnConnect" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -416,7 +418,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -611,7 +613,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -649,7 +657,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -692,20 +706,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="6" name="그룹 5"/>
+        <xdr:cNvPr id="6" name="그룹 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="198408" y="353683"/>
-          <a:ext cx="4607169" cy="1524176"/>
+          <a:off x="198408" y="364825"/>
+          <a:ext cx="4581290" cy="1613316"/>
           <a:chOff x="198408" y="353683"/>
           <a:chExt cx="4607169" cy="1524176"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="2" name="그림 1"/>
+          <xdr:cNvPr id="2" name="그림 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -728,7 +754,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="TextBox 3"/>
+          <xdr:cNvPr id="4" name="TextBox 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -792,20 +824,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="그룹 7"/>
+        <xdr:cNvPr id="8" name="그룹 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="457200" y="1828799"/>
-          <a:ext cx="6763531" cy="5568439"/>
+          <a:off x="457200" y="1929081"/>
+          <a:ext cx="6720399" cy="5880428"/>
           <a:chOff x="457200" y="1828799"/>
           <a:chExt cx="6763531" cy="5568439"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="그림 2"/>
+          <xdr:cNvPr id="3" name="그림 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -828,7 +872,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="TextBox 4"/>
+          <xdr:cNvPr id="5" name="TextBox 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -892,7 +942,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -975,20 +1031,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="7" name="그룹 6"/>
+        <xdr:cNvPr id="7" name="그룹 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="60385" y="258792"/>
-          <a:ext cx="6044744" cy="2182310"/>
+          <a:off x="60385" y="269934"/>
+          <a:ext cx="6010238" cy="2304877"/>
           <a:chOff x="60385" y="258792"/>
           <a:chExt cx="6044744" cy="2182310"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="그림 2"/>
+          <xdr:cNvPr id="3" name="그림 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -1011,7 +1079,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="TextBox 5"/>
+          <xdr:cNvPr id="6" name="TextBox 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1075,20 +1149,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="11" name="그룹 10"/>
+        <xdr:cNvPr id="11" name="그룹 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="586596" y="2449902"/>
-          <a:ext cx="3914361" cy="1290354"/>
+          <a:off x="586596" y="2583611"/>
+          <a:ext cx="3888482" cy="1357209"/>
           <a:chOff x="586596" y="2449902"/>
           <a:chExt cx="3914361" cy="1290354"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="8" name="그림 7"/>
+          <xdr:cNvPr id="8" name="그림 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -1111,7 +1197,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="TextBox 9"/>
+          <xdr:cNvPr id="10" name="TextBox 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1175,20 +1267,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="15" name="그룹 14"/>
+        <xdr:cNvPr id="15" name="그룹 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1621766" y="3830129"/>
-          <a:ext cx="3905701" cy="2979071"/>
+          <a:off x="1613140" y="4041836"/>
+          <a:ext cx="3879821" cy="3146207"/>
           <a:chOff x="1621766" y="3830129"/>
           <a:chExt cx="3905701" cy="2979071"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="12" name="그림 11"/>
+          <xdr:cNvPr id="12" name="그림 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -1211,7 +1315,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="TextBox 13"/>
+          <xdr:cNvPr id="14" name="TextBox 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1275,20 +1385,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="22" name="그룹 21"/>
+        <xdr:cNvPr id="22" name="그룹 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1173193" y="6832121"/>
-          <a:ext cx="6577190" cy="11379360"/>
+          <a:off x="1168880" y="7210964"/>
+          <a:ext cx="6534058" cy="12014480"/>
           <a:chOff x="1173193" y="6832121"/>
           <a:chExt cx="6577190" cy="11379360"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="20" name="그림 19"/>
+          <xdr:cNvPr id="20" name="그림 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -1311,7 +1433,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="21" name="TextBox 20"/>
+          <xdr:cNvPr id="21" name="TextBox 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000015000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1375,7 +1503,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="TextBox 15"/>
+        <xdr:cNvPr id="16" name="TextBox 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1480,7 +1614,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="TextBox 22"/>
+        <xdr:cNvPr id="23" name="TextBox 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1561,7 +1701,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="그림 23"/>
+        <xdr:cNvPr id="24" name="그림 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1599,20 +1745,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="27" name="그룹 26"/>
+        <xdr:cNvPr id="27" name="그룹 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="336430" y="20263449"/>
-          <a:ext cx="5533798" cy="4260765"/>
+          <a:off x="336430" y="21399979"/>
+          <a:ext cx="5499292" cy="4494757"/>
           <a:chOff x="336430" y="20263449"/>
           <a:chExt cx="5533798" cy="4260765"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="25" name="그림 24"/>
+          <xdr:cNvPr id="25" name="그림 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000019000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -1635,7 +1793,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="26" name="TextBox 25"/>
+          <xdr:cNvPr id="26" name="TextBox 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1699,20 +1863,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="30" name="그룹 29"/>
+        <xdr:cNvPr id="30" name="그룹 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6323162" y="20228943"/>
-          <a:ext cx="5611739" cy="5395237"/>
+          <a:off x="6284343" y="21354331"/>
+          <a:ext cx="5577233" cy="5707225"/>
           <a:chOff x="6323162" y="20228943"/>
           <a:chExt cx="5611739" cy="5395237"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="28" name="그림 27"/>
+          <xdr:cNvPr id="28" name="그림 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -1735,7 +1911,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="29" name="TextBox 28"/>
+          <xdr:cNvPr id="29" name="TextBox 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1799,7 +1981,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="그림 30"/>
+        <xdr:cNvPr id="31" name="그림 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1837,20 +2025,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="34" name="그룹 33"/>
+        <xdr:cNvPr id="34" name="그룹 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="836762" y="24533525"/>
-          <a:ext cx="5109454" cy="5932163"/>
+          <a:off x="832449" y="25904047"/>
+          <a:ext cx="5079261" cy="6266436"/>
           <a:chOff x="836762" y="24533525"/>
           <a:chExt cx="5109454" cy="5932163"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="32" name="그림 31"/>
+          <xdr:cNvPr id="32" name="그림 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000020000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -1873,7 +2073,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="33" name="TextBox 32"/>
+          <xdr:cNvPr id="33" name="TextBox 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000021000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1937,7 +2143,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="TextBox 34"/>
+        <xdr:cNvPr id="35" name="TextBox 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2035,7 +2247,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2160,7 +2378,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2198,7 +2422,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2236,7 +2466,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2274,7 +2510,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2317,7 +2559,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2380,20 +2628,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="5" name="그룹 4"/>
+        <xdr:cNvPr id="5" name="그룹 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="258793" y="810884"/>
-          <a:ext cx="5750301" cy="2805870"/>
+          <a:off x="258793" y="855454"/>
+          <a:ext cx="5715795" cy="2961864"/>
           <a:chOff x="258793" y="810884"/>
           <a:chExt cx="5750301" cy="2805870"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="그림 2"/>
+          <xdr:cNvPr id="3" name="그림 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -2416,7 +2676,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="TextBox 3"/>
+          <xdr:cNvPr id="4" name="TextBox 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2480,7 +2746,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2549,7 +2821,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2637,7 +2915,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="그림 8"/>
+        <xdr:cNvPr id="9" name="그림 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2675,7 +2959,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="그림 9"/>
+        <xdr:cNvPr id="10" name="그림 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2713,7 +3003,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="그림 7"/>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2756,20 +3052,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="4" name="그룹 3"/>
+        <xdr:cNvPr id="4" name="그룹 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="595223" y="3648970"/>
-          <a:ext cx="7620881" cy="874636"/>
+          <a:off x="595223" y="3849534"/>
+          <a:ext cx="7573436" cy="919206"/>
           <a:chOff x="552090" y="1043796"/>
           <a:chExt cx="7620881" cy="874636"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="2" name="그림 1"/>
+          <xdr:cNvPr id="2" name="그림 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -2792,7 +3100,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="TextBox 2"/>
+          <xdr:cNvPr id="3" name="TextBox 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2856,7 +3170,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2961,20 +3281,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="그룹 7"/>
+        <xdr:cNvPr id="8" name="그룹 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="276046" y="940276"/>
-          <a:ext cx="2822987" cy="2380583"/>
+          <a:off x="276046" y="984846"/>
+          <a:ext cx="2805734" cy="2514292"/>
           <a:chOff x="431321" y="319177"/>
           <a:chExt cx="2822987" cy="2380583"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="5" name="그림 4"/>
+          <xdr:cNvPr id="5" name="그림 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -2997,7 +3329,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="TextBox 6"/>
+          <xdr:cNvPr id="7" name="TextBox 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3061,20 +3399,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="11" name="그룹 10"/>
+        <xdr:cNvPr id="11" name="그룹 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1337095" y="4787658"/>
-          <a:ext cx="8149146" cy="5577099"/>
+          <a:off x="1332782" y="5055077"/>
+          <a:ext cx="8097387" cy="5889088"/>
           <a:chOff x="1337095" y="4451230"/>
           <a:chExt cx="8149146" cy="5577099"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="9" name="그림 8"/>
+          <xdr:cNvPr id="9" name="그림 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -3097,7 +3447,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="TextBox 9"/>
+          <xdr:cNvPr id="10" name="TextBox 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3161,7 +3517,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="TextBox 11"/>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3250,20 +3612,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="12" name="그룹 11"/>
+        <xdr:cNvPr id="12" name="그룹 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="750499" y="3786997"/>
-          <a:ext cx="7066635" cy="6919075"/>
+          <a:off x="746186" y="3998704"/>
+          <a:ext cx="7023503" cy="7297918"/>
           <a:chOff x="60385" y="86265"/>
           <a:chExt cx="7066635" cy="6919075"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="8" name="그룹 7"/>
+          <xdr:cNvPr id="8" name="그룹 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -3276,7 +3650,13 @@
         </xdr:grpSpPr>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="5" name="그림 4"/>
+            <xdr:cNvPr id="5" name="그림 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvPicPr>
               <a:picLocks noChangeAspect="1"/>
             </xdr:cNvPicPr>
@@ -3299,7 +3679,13 @@
         </xdr:pic>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="TextBox 6"/>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3349,7 +3735,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="직사각형 9"/>
+          <xdr:cNvPr id="10" name="직사각형 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3394,7 +3786,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="직사각형 10"/>
+          <xdr:cNvPr id="11" name="직사각형 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3455,20 +3853,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="15" name="그룹 14"/>
+        <xdr:cNvPr id="15" name="그룹 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2355012" y="10463842"/>
-          <a:ext cx="7222516" cy="6079384"/>
+          <a:off x="2342072" y="11043250"/>
+          <a:ext cx="7179384" cy="6424800"/>
           <a:chOff x="793631" y="7159925"/>
           <a:chExt cx="7222516" cy="6079384"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="13" name="그림 12"/>
+          <xdr:cNvPr id="13" name="그림 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -3491,7 +3901,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="TextBox 13"/>
+          <xdr:cNvPr id="14" name="TextBox 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3557,20 +3973,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="19" name="그룹 18"/>
+        <xdr:cNvPr id="19" name="그룹 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="163902" y="103516"/>
-          <a:ext cx="4581188" cy="3481155"/>
+          <a:ext cx="4555309" cy="3681719"/>
           <a:chOff x="163902" y="103516"/>
           <a:chExt cx="4581188" cy="3481155"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="17" name="그림 16"/>
+          <xdr:cNvPr id="17" name="그림 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000011000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -3593,7 +4021,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="TextBox 17"/>
+          <xdr:cNvPr id="18" name="TextBox 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000012000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3658,20 +4092,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="21" name="그룹 20"/>
+        <xdr:cNvPr id="21" name="그룹 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="370936" y="16821510"/>
-          <a:ext cx="9049796" cy="9508708"/>
+          <a:off x="370936" y="17757476"/>
+          <a:ext cx="8993724" cy="10043546"/>
           <a:chOff x="370936" y="16821510"/>
           <a:chExt cx="9049796" cy="9508708"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="16" name="그림 15"/>
+          <xdr:cNvPr id="16" name="그림 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000010000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -3694,7 +4140,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="TextBox 19"/>
+          <xdr:cNvPr id="20" name="TextBox 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000014000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3760,7 +4212,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="직사각형 21"/>
+        <xdr:cNvPr id="22" name="직사각형 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3820,20 +4278,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="26" name="그룹 25"/>
+        <xdr:cNvPr id="26" name="그룹 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1699404" y="26526226"/>
-          <a:ext cx="7690161" cy="7941304"/>
+          <a:off x="1690778" y="28008172"/>
+          <a:ext cx="7642715" cy="8387002"/>
           <a:chOff x="1906438" y="26388203"/>
           <a:chExt cx="7690161" cy="7941304"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="23" name="그림 22"/>
+          <xdr:cNvPr id="23" name="그림 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000017000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -3856,7 +4326,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="24" name="TextBox 23"/>
+          <xdr:cNvPr id="24" name="TextBox 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000018000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3922,7 +4398,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="직사각형 27"/>
+        <xdr:cNvPr id="28" name="직사각형 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3982,7 +4464,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="직사각형 28"/>
+        <xdr:cNvPr id="29" name="직사각형 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4042,20 +4530,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="32" name="그룹 31"/>
+        <xdr:cNvPr id="32" name="그룹 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3010619" y="34600551"/>
-          <a:ext cx="6235266" cy="8287708"/>
+          <a:off x="2993366" y="36539338"/>
+          <a:ext cx="6196447" cy="8755691"/>
           <a:chOff x="3010619" y="34600551"/>
           <a:chExt cx="6235266" cy="8287708"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="30" name="그림 29"/>
+          <xdr:cNvPr id="30" name="그림 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -4078,7 +4578,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="31" name="TextBox 30"/>
+          <xdr:cNvPr id="31" name="TextBox 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4144,7 +4650,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="TextBox 32"/>
+        <xdr:cNvPr id="33" name="TextBox 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4210,25 +4722,980 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>483079</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>189781</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>586595</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>86265</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>163219</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>144005</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="그룹 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF4B8F55-626F-44D9-B8C6-4F0B3F9E11E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1181100" y="28936950"/>
+          <a:ext cx="9269119" cy="8297405"/>
+          <a:chOff x="1466850" y="914400"/>
+          <a:chExt cx="9269119" cy="8297405"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="그림 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C1C74AC-D98C-4841-9624-06594948BA37}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1466850" y="1114425"/>
+            <a:ext cx="9269119" cy="8097380"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="TextBox 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{495324B2-60FC-4233-A44A-0FC4B4D189C4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1485900" y="914400"/>
+            <a:ext cx="1609725" cy="228599"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>AsyncSocketServer.cs</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>677110</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>57490</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="9" name="그룹 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F25F956E-AFF8-488C-8520-7979F0B8CF12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1552575" y="26060400"/>
+          <a:ext cx="5982535" cy="2705440"/>
+          <a:chOff x="1571625" y="1123950"/>
+          <a:chExt cx="5982535" cy="2705440"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="7" name="그림 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{068511E7-7D8A-4864-9BCB-0908C9DC36D8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1571625" y="1390650"/>
+            <a:ext cx="5982535" cy="2438740"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="TextBox 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CF8AA4E-C7D7-465A-93B9-632613B5DD01}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1647825" y="1123950"/>
+            <a:ext cx="1295400" cy="257175"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>AppServerBase.cs</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>629377</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>28913</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="그룹 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE2EBCD7-3CE2-44A1-9C76-60FBD4B3245C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1590675" y="14697075"/>
+          <a:ext cx="5210902" cy="2724488"/>
+          <a:chOff x="1371600" y="1123950"/>
+          <a:chExt cx="5210902" cy="2724488"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="10" name="그림 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECF23047-27F8-4B4B-9DD4-8F87840D005A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1371600" y="1428750"/>
+            <a:ext cx="5210902" cy="2419688"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="TextBox 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12FF8EAE-AE64-44AF-A5C3-DB26B5D756CF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1371600" y="1123950"/>
+            <a:ext cx="1295400" cy="257175"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>AppServerBase.cs</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>543611</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>133543</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="그룹 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E91F364-3E4D-4B8F-B55C-61940F7DBCC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1114425" y="12992100"/>
+          <a:ext cx="4915586" cy="1600393"/>
+          <a:chOff x="1981200" y="3524250"/>
+          <a:chExt cx="4915586" cy="1600393"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="13" name="그림 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDD2B22F-4DFC-4EC9-97EB-AD2B79073777}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1981200" y="3743325"/>
+            <a:ext cx="4915586" cy="1381318"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="TextBox 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94A4FAD2-F170-44F8-AF02-BE97FA5EC30E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2028825" y="3524250"/>
+            <a:ext cx="1609725" cy="228599"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>AsyncSocketServer.cs</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>353648</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>191638</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="18" name="그룹 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{965B1189-7677-4490-8A8D-3F8F60BC8AB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1190625" y="17564100"/>
+          <a:ext cx="8764223" cy="8402188"/>
+          <a:chOff x="3076575" y="723900"/>
+          <a:chExt cx="8764223" cy="8402188"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="16" name="그림 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7794D07F-D3A4-4105-A055-BE48B3EEB7B0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3076575" y="971550"/>
+            <a:ext cx="8764223" cy="8154538"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="TextBox 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E7D8C43-84F5-4F95-8D46-1A22F830BB56}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3095625" y="723900"/>
+            <a:ext cx="1609725" cy="228599"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>AsyncSocketServer.cs</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>505881</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>104943</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="21" name="그룹 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06FECB54-13DF-4B59-BB27-B0AE877ECFC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1171575" y="11515725"/>
+          <a:ext cx="7563906" cy="1371768"/>
+          <a:chOff x="485775" y="904875"/>
+          <a:chExt cx="7563906" cy="1371768"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="19" name="그림 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55DF8CB2-3606-4376-90D0-B6A335325839}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="485775" y="1076325"/>
+            <a:ext cx="7563906" cy="1200318"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="TextBox 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{300E624D-FE62-4B42-976F-0CD01DF5DC81}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="523875" y="904875"/>
+            <a:ext cx="1609725" cy="228599"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>AsyncSocketServer.cs</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457991</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>57306</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="26" name="그룹 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32E5D8B5-D36D-49E0-BBA0-D73D0151643C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="962025" y="10029825"/>
+          <a:ext cx="5668166" cy="1343181"/>
+          <a:chOff x="12477750" y="361950"/>
+          <a:chExt cx="5668166" cy="1343181"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="22" name="그림 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F13909AD-2874-4829-80D8-2D06D8A80058}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12477750" y="590550"/>
+            <a:ext cx="5668166" cy="1114581"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="TextBox 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A84EBEA-206B-4D58-BE70-73BC56611541}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12534900" y="361950"/>
+            <a:ext cx="1571625" cy="209550"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>SocketListenerBase.cs</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>296146</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>172777</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="25" name="그룹 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6338C81A-8221-4852-A567-BD448DA000BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="228600" y="76200"/>
+          <a:ext cx="6239746" cy="9735877"/>
+          <a:chOff x="12601575" y="3562350"/>
+          <a:chExt cx="6239746" cy="9735877"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="TextBox 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3421EAF-903C-4437-AD37-8AF3C88BE087}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12630150" y="3562350"/>
+            <a:ext cx="1724025" cy="209550"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>TcpAsyncSocketListener.cs</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="24" name="그림 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43BBFDD1-BD22-4B4E-9B59-02A8C8D425A3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12601575" y="3790950"/>
+            <a:ext cx="6239746" cy="9507277"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>417841</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>134609</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="직사각형 1"/>
+        <xdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD9AC79A-151F-426E-B8C6-3D17A99A563D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1173192" y="785004"/>
-          <a:ext cx="2863969" cy="491706"/>
+          <a:off x="5114925" y="2962275"/>
+          <a:ext cx="2846716" cy="525134"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4532,14 +5999,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -4549,34 +6016,48 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E17BB9-8CC5-483F-B3F0-9295AAE0A4E9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" customWidth="1"/>
-    <col min="2" max="2" width="61.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="33.375" customWidth="1"/>
+    <col min="2" max="2" width="61.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="24.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="24.4" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -4584,7 +6065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -4592,7 +6073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -4600,7 +6081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -4608,7 +6089,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
@@ -4616,7 +6097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -4624,12 +6105,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="24.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="24.4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -4637,7 +6118,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>74</v>
       </c>
@@ -4661,7 +6142,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>22</v>
       </c>
@@ -4669,7 +6150,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>24</v>
       </c>
@@ -4677,7 +6158,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>26</v>
       </c>
@@ -4685,7 +6166,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>28</v>
       </c>
@@ -4693,7 +6174,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="31.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="31.35" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>30</v>
       </c>
@@ -4701,7 +6182,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>32</v>
       </c>
@@ -4709,7 +6190,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>34</v>
       </c>
@@ -4717,7 +6198,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="31.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="31.35" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>36</v>
       </c>
@@ -4725,7 +6206,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>38</v>
       </c>
@@ -4733,7 +6214,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>40</v>
       </c>
@@ -4741,7 +6222,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>42</v>
       </c>
@@ -4749,7 +6230,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
         <v>44</v>
       </c>
@@ -4757,7 +6238,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
         <v>46</v>
       </c>
@@ -4765,7 +6246,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
         <v>48</v>
       </c>
@@ -4781,7 +6262,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="31.25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>52</v>
       </c>
@@ -4789,7 +6270,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="46.9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>54</v>
       </c>
@@ -4797,7 +6278,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="31.25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
         <v>56</v>
       </c>
@@ -4821,7 +6302,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="31.25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
         <v>62</v>
       </c>
@@ -4853,7 +6334,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
         <v>70</v>
       </c>
@@ -4861,7 +6342,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="31.25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
         <v>72</v>
       </c>
@@ -4877,7 +6358,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="31.25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>77</v>
       </c>
@@ -4893,14 +6374,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4909,14 +6390,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4925,14 +6406,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4941,14 +6422,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4957,14 +6438,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4973,14 +6454,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+    <sheetView topLeftCell="A194" workbookViewId="0">
       <selection activeCell="Q183" sqref="Q183"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4989,14 +6470,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/SuperSocketLite_Code.xlsx
+++ b/Docs/SuperSocketLite_Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\SuperSocketLite\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EF19C0-5530-4ED7-922E-10736AF0F9AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1509632-E934-435D-ACE0-217DB5041621}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="765" windowWidth="28800" windowHeight="15435" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14235" yWindow="2370" windowWidth="22200" windowHeight="17130" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="공식 문서" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="ClearIdleSession" sheetId="4" r:id="rId7"/>
     <sheet name="Server Start" sheetId="7" r:id="rId8"/>
     <sheet name="OnConnect" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId10"/>
+    <sheet name="OnReceive" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -5670,23 +5670,1203 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>210340</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>48209</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="그룹 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB1E0A7D-200B-4F85-8F92-8AF16CE10299}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2781300" y="27231975"/>
+          <a:ext cx="5658640" cy="4458284"/>
+          <a:chOff x="1847850" y="2943225"/>
+          <a:chExt cx="5658640" cy="4458284"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="그림 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B05BACCB-8A0F-4DB5-8708-D45CB7AE6D89}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1847850" y="3219450"/>
+            <a:ext cx="5658640" cy="4182059"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="TextBox 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C0BB54C-B89F-4311-A2DA-4B180CC15622}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1866900" y="2943225"/>
+            <a:ext cx="1362075" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>AppServerBase.cs</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>343805</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>198</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="9" name="그룹 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{480D51FD-F2B8-4E0D-A5AF-2C89AB807974}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2771775" y="25365075"/>
+          <a:ext cx="6487430" cy="1667073"/>
+          <a:chOff x="2447925" y="1943100"/>
+          <a:chExt cx="6487430" cy="1667073"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="7" name="그림 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E61923E3-C50D-418B-AFE6-2CC2F2D75AC2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2447925" y="2190750"/>
+            <a:ext cx="6487430" cy="1419423"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="TextBox 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E66A20EE-29CB-49F5-A8F4-F5C1F4709A19}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2466975" y="1943100"/>
+            <a:ext cx="1362075" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>AppServerBase.cs</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>477267</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>124434</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="그룹 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E7D4DE9-E7D7-4B92-8AB1-002E2E1C0F8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2790825" y="20469224"/>
+          <a:ext cx="7287642" cy="4591660"/>
+          <a:chOff x="1266825" y="809624"/>
+          <a:chExt cx="7287642" cy="4591660"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="10" name="그림 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E89B3FBD-8E10-463F-AA7F-8BF33FE5E1A5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1266825" y="1038225"/>
+            <a:ext cx="7287642" cy="4363059"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="TextBox 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C22607F-8038-4324-B4B5-8BADEDD472D3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1276351" y="809624"/>
+            <a:ext cx="1009650" cy="219075"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>AppSession.cs</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>553573</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>67201</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="그룹 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B5C654F-40C9-4D98-A25E-DFE7337B3921}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2790825" y="16182975"/>
+          <a:ext cx="8049748" cy="4001026"/>
+          <a:chOff x="1790700" y="2714625"/>
+          <a:chExt cx="8049748" cy="4001026"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="13" name="그림 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCE20902-AC1E-4D34-ABB7-BA1F3A4C7A15}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1790700" y="2943225"/>
+            <a:ext cx="8049748" cy="3772426"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="TextBox 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23BF55A6-B06E-4097-B282-BCA35CFBAC13}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1790700" y="2714625"/>
+            <a:ext cx="1724025" cy="209550"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>AsyncSocketSession.cs</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>658273</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>191193</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="18" name="그룹 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FBD48A2-601F-4CCE-83DB-26EAC715E0E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2752725" y="10734675"/>
+          <a:ext cx="7506748" cy="5172768"/>
+          <a:chOff x="1952625" y="3362325"/>
+          <a:chExt cx="7506748" cy="5172768"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="16" name="그림 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECBD8249-A10F-4962-80A9-56D92F3A769C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1952625" y="3571875"/>
+            <a:ext cx="7506748" cy="4963218"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="TextBox 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{529A8AE1-E20A-4B35-8EAA-050314051BC6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1962150" y="3362325"/>
+            <a:ext cx="1724025" cy="209550"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>AsyncSocketSession.cs</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19531</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>57231</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="21" name="그룹 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A0E5A5C-58DD-4D90-A8BD-9D0DAD20704B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2743200" y="9696450"/>
+          <a:ext cx="3448531" cy="838281"/>
+          <a:chOff x="1857375" y="2266950"/>
+          <a:chExt cx="3448531" cy="838281"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="19" name="그림 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F745AF1-9F6D-49B2-8331-929673DBD1D3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1857375" y="2524125"/>
+            <a:ext cx="3448531" cy="581106"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="TextBox 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFB1F54C-E1FF-4DDE-8198-3206A1D33C3F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1866900" y="2266950"/>
+            <a:ext cx="1724025" cy="209550"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>AsyncSocketSession.cs</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>667226</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>133488</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="24" name="그룹 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BF6BD32-31EA-4C98-847D-6C77C139486B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2743200" y="8334375"/>
+          <a:ext cx="3410426" cy="1228863"/>
+          <a:chOff x="1819275" y="895350"/>
+          <a:chExt cx="3410426" cy="1228863"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="22" name="그림 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A01075A-6695-4A38-A516-9649C83BED3A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1819275" y="1133475"/>
+            <a:ext cx="3410426" cy="990738"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="TextBox 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C637C6E1-A20C-447D-83F5-44A5BF197549}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1828800" y="895350"/>
+            <a:ext cx="1724025" cy="209550"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>AsyncSocketSession.cs</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>417841</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>134609</xdr:rowOff>
+      <xdr:colOff>305790</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>29480</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="27" name="그룹 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE30C36B-BC30-4C2B-9539-6538673A82C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="752475" y="1495425"/>
+          <a:ext cx="7097115" cy="6706505"/>
+          <a:chOff x="3390900" y="971550"/>
+          <a:chExt cx="7097115" cy="6706505"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="25" name="그림 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4826E27A-9124-4E4B-BEC7-D894031B755D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3390900" y="1190625"/>
+            <a:ext cx="7097115" cy="6487430"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="TextBox 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B504580-EC7B-4436-85B6-FB8418AB609D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3419475" y="971550"/>
+            <a:ext cx="1724025" cy="209550"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>AsyncSocketServer.cs</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>667683</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152546</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="30" name="그룹 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8728CBE-5728-4CF0-B537-922ADB708C19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152400" y="114300"/>
+          <a:ext cx="6687483" cy="1295546"/>
+          <a:chOff x="152400" y="114300"/>
+          <a:chExt cx="6687483" cy="1295546"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="28" name="그림 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CB2630C-24C5-4CC3-A4ED-B8E7167DF259}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="152400" y="361950"/>
+            <a:ext cx="6687483" cy="1047896"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="TextBox 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A5658EC-1E51-4CFB-9A42-1CEF964D6019}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="190500" y="114300"/>
+            <a:ext cx="1724025" cy="209550"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>AsyncSocketServer.cs</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>239159</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76704</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="33" name="그룹 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{282F88E1-9217-4336-BAF7-65C649E144BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7915275" y="2295525"/>
+          <a:ext cx="7411484" cy="3858129"/>
+          <a:chOff x="7972425" y="2524125"/>
+          <a:chExt cx="7411484" cy="3858129"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="31" name="그림 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFC1439D-9C0E-400B-8744-D84557011802}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7972425" y="2771775"/>
+            <a:ext cx="7411484" cy="3610479"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="TextBox 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90CB80CF-AE41-4F8F-8313-733FCDDB8380}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7991475" y="2524125"/>
+            <a:ext cx="2028825" cy="200025"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>SocketAsyncEventArgsProxy.cs</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="직사각형 1">
+        <xdr:cNvPr id="34" name="직사각형 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD9AC79A-151F-426E-B8C6-3D17A99A563D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04307657-DEF9-40C8-A0E3-0A97D972CD84}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5694,8 +6874,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5114925" y="2962275"/>
-          <a:ext cx="2846716" cy="525134"/>
+          <a:off x="1019174" y="2266950"/>
+          <a:ext cx="10029825" cy="504825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5728,6 +6908,288 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>77113</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>104978</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="37" name="그룹 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45AD18DA-4A27-4459-80B7-86E0D60C7F8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7934325" y="6810375"/>
+          <a:ext cx="6544588" cy="1676603"/>
+          <a:chOff x="8181975" y="7372350"/>
+          <a:chExt cx="6544588" cy="1676603"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="35" name="그림 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CA30CBB-6B5E-4AAE-875A-FADA918F7E14}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8181975" y="7591425"/>
+            <a:ext cx="6544588" cy="1457528"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="TextBox 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26A31806-54E5-4BA8-A8E8-CD61B05FE190}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8181976" y="7372350"/>
+            <a:ext cx="971550" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>AppServer.cs</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>4864</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="직선 화살표 연결선 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C7890D8-CCA2-4887-99BF-5BE9FC084B54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="35" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3286126" y="7153275"/>
+          <a:ext cx="4648199" cy="604939"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="TextBox 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84A21032-F665-4B4B-9B1E-6F2536B74A1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7391399" y="314324"/>
+          <a:ext cx="3962401" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>세션 별로 재정의한 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>Receive </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>이벤트 함수 호출이 끝나기 전까지는 다시 비동기 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>Receive</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>를 호출하지 않는다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>즉 동일 세션은 동시에 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>Receive </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>처리를 하지 못한다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -6027,7 +7489,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E17BB9-8CC5-483F-B3F0-9295AAE0A4E9}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -6473,7 +7937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>

--- a/Docs/SuperSocketLite_Code.xlsx
+++ b/Docs/SuperSocketLite_Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\SuperSocketLite\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev_github\02_SuperSocketLite\trunk\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1509632-E934-435D-ACE0-217DB5041621}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E918BD-DFE1-43A4-989D-197DD5674AE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14235" yWindow="2370" windowWidth="22200" windowHeight="17130" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14235" yWindow="2370" windowWidth="22200" windowHeight="17130" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="공식 문서" sheetId="6" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Server Start" sheetId="7" r:id="rId8"/>
     <sheet name="OnConnect" sheetId="9" r:id="rId9"/>
     <sheet name="OnReceive" sheetId="10" r:id="rId10"/>
+    <sheet name="Send 실패 경우" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -689,6 +690,691 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76999</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38450</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="그룹 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B9DF5E4-6945-419A-A643-AAC6641101AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="495300" y="609600"/>
+          <a:ext cx="5753899" cy="2781650"/>
+          <a:chOff x="723900" y="1657350"/>
+          <a:chExt cx="5753899" cy="2781650"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="그림 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16022995-2DC1-43A4-A573-3688C5FA2D8D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="752475" y="1933575"/>
+            <a:ext cx="5725324" cy="2505425"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="TextBox 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BACFFF4F-8770-4F47-B23F-41ABC9273D4B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="723900" y="1657350"/>
+            <a:ext cx="1508914" cy="219006"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>SocketSession.cs</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="직선 연결선 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{625B6657-C000-4EAE-8FDB-E6D313467E37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="1838325"/>
+          <a:ext cx="9525" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="직선 연결선 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{581E0B6C-66EF-480D-988F-C55DB13DC557}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="390526" y="2047875"/>
+          <a:ext cx="1333499" cy="28575"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="직선 연결선 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D69F16F-9CE8-4219-A629-F909968732A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="400050" y="2085976"/>
+          <a:ext cx="47625" cy="3419474"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="직선 연결선 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFC129E9-160D-4A6B-BF33-6272956BF80E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="457201" y="5495925"/>
+          <a:ext cx="1876424" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>191258</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19390</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="17" name="그룹 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EF05FCB-91EC-4779-B3F2-06A61D4360B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2295525" y="3676650"/>
+          <a:ext cx="5439533" cy="2629240"/>
+          <a:chOff x="2295525" y="3676650"/>
+          <a:chExt cx="5439533" cy="2629240"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="그림 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B2EC90D-CDBD-465C-B1CC-8CBF304A510F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2305050" y="3867150"/>
+            <a:ext cx="5430008" cy="2438740"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="TextBox 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EEE669B-48F1-4F01-A717-28D07F29C5B4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2295525" y="3676650"/>
+            <a:ext cx="1508914" cy="219006"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>SendingQueue.cs</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="TextBox 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{318EBA3B-0B16-43E9-AAEF-13ABFE2B92AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6781800" y="923925"/>
+          <a:ext cx="3495675" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>이 에러가 찍히는 경우는 멀티스레드 환경에서 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>Send</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>에서 보낼 준비를 다해서 보낼려고 하는 시기에 접속 종료가 발생해서 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>send</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> quque</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>의 데이터가 초기화 되었을 때 발생할 수 있을 것으로 예상된다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>send</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> quque</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>의 초기화는 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Send</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>를 정상적으로 다했을 때</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, Send </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>실패가 발생했을 때</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>접속이 끊어진 경우 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>가지 이다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -7489,8 +8175,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E17BB9-8CC5-483F-B3F0-9295AAE0A4E9}">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1D94A0-38D2-422A-9AEF-31FD9ACC5070}">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7857,7 +8559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
